--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_158__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_158__Reeval_LHS_Modell_1.3.xlsx
@@ -5885,7 +5885,7 @@
                   <c:v>56.62618255615234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.85850524902344</c:v>
+                  <c:v>72.85851287841797</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>65.50437927246094</c:v>
@@ -5900,7 +5900,7 @@
                   <c:v>63.67364501953125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.53628540039062</c:v>
+                  <c:v>62.53627777099609</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>74.87419128417969</c:v>
@@ -5915,7 +5915,7 @@
                   <c:v>72.6192626953125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.21810150146484</c:v>
+                  <c:v>68.21810913085938</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>70.34921264648438</c:v>
@@ -5978,16 +5978,16 @@
                   <c:v>52.48091125488281</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>63.29558563232422</c:v>
+                  <c:v>63.29557800292969</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65.47364807128906</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>68.94734954833984</c:v>
+                  <c:v>68.94734191894531</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>65.57276153564453</c:v>
+                  <c:v>65.57276916503906</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>69.31425476074219</c:v>
@@ -6020,7 +6020,7 @@
                   <c:v>70.88872528076172</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>65.13876342773438</c:v>
+                  <c:v>65.13875579833984</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>71.79117584228516</c:v>
@@ -6065,13 +6065,13 @@
                   <c:v>68.89651489257812</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>69.57038116455078</c:v>
+                  <c:v>69.57038879394531</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>67.9510498046875</c:v>
+                  <c:v>67.95105743408203</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>60.70220184326172</c:v>
+                  <c:v>60.70219421386719</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>64.24514770507812</c:v>
@@ -6086,7 +6086,7 @@
                   <c:v>60.77439117431641</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68.07373046875</c:v>
+                  <c:v>68.07372283935547</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>69.08657073974609</c:v>
@@ -6987,7 +6987,7 @@
         <v>71.60080000000001</v>
       </c>
       <c r="F6">
-        <v>72.85850524902344</v>
+        <v>72.85851287841797</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>73.7132</v>
       </c>
       <c r="F11">
-        <v>62.53628540039062</v>
+        <v>62.53627777099609</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>70.16200000000001</v>
       </c>
       <c r="F16">
-        <v>68.21810150146484</v>
+        <v>68.21810913085938</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>90.173</v>
       </c>
       <c r="F37">
-        <v>63.29558563232422</v>
+        <v>63.29557800292969</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>84.6387</v>
       </c>
       <c r="F39">
-        <v>68.94734954833984</v>
+        <v>68.94734191894531</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>90.7071</v>
       </c>
       <c r="F40">
-        <v>65.57276153564453</v>
+        <v>65.57276916503906</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>63.4987</v>
       </c>
       <c r="F51">
-        <v>65.13876342773438</v>
+        <v>65.13875579833984</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>66.16630000000001</v>
       </c>
       <c r="F66">
-        <v>69.57038116455078</v>
+        <v>69.57038879394531</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.9449</v>
       </c>
       <c r="F67">
-        <v>67.9510498046875</v>
+        <v>67.95105743408203</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>72.51430000000001</v>
       </c>
       <c r="F68">
-        <v>60.70220184326172</v>
+        <v>60.70219421386719</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>83.1452</v>
       </c>
       <c r="F73">
-        <v>68.07373046875</v>
+        <v>68.07372283935547</v>
       </c>
     </row>
     <row r="74" spans="1:6">
